--- a/IBOV.xlsx
+++ b/IBOV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a632e8939f4cede6/Desktop/Coding Bootcamp - ENAP/Ciência de Dados/trabalho final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65291A3D-4281-4AF1-B18C-4BAA35CAD321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{65291A3D-4281-4AF1-B18C-4BAA35CAD321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BD0C991-910B-41B7-BB84-BF37E619077E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>44134</v>
+        <v>44125</v>
       </c>
       <c r="B2" s="3">
         <v>100539</v>
